--- a/public/templates/借样确认单.xlsx
+++ b/public/templates/借样确认单.xlsx
@@ -353,8 +353,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1075,13 +1075,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1">
@@ -1102,10 +1102,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,25 +1123,244 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,227 +1375,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1680,129 +1680,129 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="76" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="79"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="40" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="40" t="s">
+      <c r="F3" s="115"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="43"/>
+      <c r="J3" s="116"/>
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="67" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="46"/>
+      <c r="J4" s="106"/>
       <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="71"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="71"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="92"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1">
-      <c r="A7" s="72"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57" t="s">
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1">
       <c r="A8" s="27"/>
@@ -1818,110 +1818,110 @@
       <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="15">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="70" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="45" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="61" t="s">
+      <c r="H9" s="101"/>
+      <c r="I9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="74"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
     </row>
     <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="64" t="s">
+      <c r="H11" s="87"/>
+      <c r="I11" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="64" t="s">
+      <c r="H12" s="87"/>
+      <c r="I12" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="74"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1">
-      <c r="A14" s="75"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="67"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="94"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="29" t="s">
@@ -1939,10 +1939,10 @@
       <c r="E15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="86"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="31" t="s">
         <v>34</v>
       </c>
@@ -1964,8 +1964,8 @@
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="26"/>
@@ -1979,8 +1979,8 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -1994,8 +1994,8 @@
       <c r="C18" s="3"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
       <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="22"/>
@@ -2009,8 +2009,8 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -2024,8 +2024,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="11"/>
       <c r="I20" s="1"/>
       <c r="J20" s="16"/>
@@ -2039,8 +2039,8 @@
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -2054,8 +2054,8 @@
       <c r="C22" s="3"/>
       <c r="D22" s="12"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="17"/>
@@ -2069,8 +2069,8 @@
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -2084,8 +2084,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
       <c r="H24" s="15"/>
       <c r="I24" s="1"/>
       <c r="J24" s="18"/>
@@ -2099,171 +2099,193 @@
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
       <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="107"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="109"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="77"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="112"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="77"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="112"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="77"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="112"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="62"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1">
-      <c r="A30" s="78"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="115"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="97"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="98"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="100"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="50"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="98"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="100"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="101" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="102"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="52"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="91"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="104"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="54"/>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1">
-      <c r="A36" s="93"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="106"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A34:F36"/>
-    <mergeCell ref="A31:K33"/>
-    <mergeCell ref="G34:K36"/>
-    <mergeCell ref="B26:K30"/>
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A26:A30"/>
@@ -2280,33 +2302,11 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A34:F36"/>
+    <mergeCell ref="A31:K33"/>
+    <mergeCell ref="G34:K36"/>
+    <mergeCell ref="B26:K30"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,5 +2337,6 @@
   <sheetData/>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/templates/借样确认单.xlsx
+++ b/public/templates/借样确认单.xlsx
@@ -866,6 +866,195 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -880,195 +1069,6 @@
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1372,7 +1372,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:G18"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1383,106 +1383,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" thickBot="1">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="28" t="s">
+      <c r="F2" s="93"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="31"/>
+      <c r="J2" s="94"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="34"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="77"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="77"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1">
-      <c r="A6" s="78"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="15"/>
@@ -1498,104 +1498,104 @@
       <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="33" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="80"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="80"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="80"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="80"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1">
-      <c r="A13" s="81"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="57"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="17" t="s">
@@ -1613,10 +1613,10 @@
       <c r="E14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="59"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="19" t="s">
         <v>28</v>
       </c>
@@ -1634,199 +1634,231 @@
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="86"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="86"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="86"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>4</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="86"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="92"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="85"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="86"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="86"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>7</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="86"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>8</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="86"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>9</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="85"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="86"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1">
       <c r="A24" s="13">
         <v>10</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="86"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11" ht="72.75" customHeight="1" thickBot="1">
       <c r="A25" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="75"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
     </row>
     <row r="26" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="72"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:11" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="67" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:K1"/>
@@ -1843,38 +1875,6 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/借样确认单.xlsx
+++ b/public/templates/借样确认单.xlsx
@@ -845,12 +845,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -872,9 +866,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -890,6 +881,108 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -956,9 +1049,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,104 +1061,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1372,7 +1372,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1383,106 +1383,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" thickBot="1">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="91" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="20"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="81" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="79" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="21"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="51"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="51"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="71" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="15"/>
@@ -1495,107 +1495,107 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="22"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="82"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="54"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="54"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="54"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="54"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1">
-      <c r="A13" s="55"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="60"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="17" t="s">
@@ -1613,20 +1613,20 @@
       <c r="E14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="91"/>
       <c r="H14" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1634,231 +1634,199 @@
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="29"/>
+      <c r="K15" s="94"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="94"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="94"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>4</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="29"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="94"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="32"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="28"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="29"/>
+      <c r="K19" s="94"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="29"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="94"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>7</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="29"/>
+      <c r="K21" s="94"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>8</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="29"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="94"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>9</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="28"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="29"/>
+      <c r="K23" s="94"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1">
       <c r="A24" s="13">
         <v>10</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="29"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="94"/>
     </row>
     <row r="25" spans="1:11" ht="72.75" customHeight="1" thickBot="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="79"/>
     </row>
     <row r="26" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="76"/>
     </row>
     <row r="27" spans="1:11" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="40" t="s">
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:K1"/>
@@ -1875,6 +1843,38 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/借样确认单.xlsx
+++ b/public/templates/借样确认单.xlsx
@@ -135,7 +135,7 @@
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,14 +317,6 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -860,13 +852,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,7 +870,178 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,179 +1059,8 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1372,7 +1364,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1383,106 +1375,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" thickBot="1">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="33" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="92"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="93"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="82"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="82"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1">
-      <c r="A6" s="83"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="15"/>
@@ -1498,104 +1490,104 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="38" t="s">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="85"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="85"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="85"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="85"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1">
-      <c r="A13" s="86"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="60"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="17" t="s">
@@ -1613,10 +1605,10 @@
       <c r="E14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="91"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="19" t="s">
         <v>28</v>
       </c>
@@ -1638,12 +1630,12 @@
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="94"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
@@ -1653,12 +1645,12 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
-      <c r="K16" s="94"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
@@ -1668,12 +1660,12 @@
       <c r="C17" s="26"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="5"/>
       <c r="I17" s="26"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="94"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
@@ -1683,12 +1675,12 @@
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="94"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
@@ -1698,12 +1690,12 @@
       <c r="C19" s="26"/>
       <c r="D19" s="29"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="7"/>
       <c r="I19" s="26"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="94"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
@@ -1713,12 +1705,12 @@
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="94"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
@@ -1728,12 +1720,12 @@
       <c r="C21" s="26"/>
       <c r="D21" s="30"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="94"/>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
@@ -1743,12 +1735,12 @@
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="94"/>
+      <c r="K22" s="34"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
@@ -1758,12 +1750,12 @@
       <c r="C23" s="26"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="24"/>
       <c r="I23" s="26"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="94"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1">
       <c r="A24" s="13">
@@ -1773,60 +1765,92 @@
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
-      <c r="K24" s="94"/>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="1:11" ht="72.75" customHeight="1" thickBot="1">
       <c r="A25" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="79"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
     </row>
     <row r="26" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="74"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="76"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
     </row>
     <row r="27" spans="1:11" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="71" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="73"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:K1"/>
@@ -1843,38 +1867,6 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/借样确认单.xlsx
+++ b/public/templates/借样确认单.xlsx
@@ -124,7 +124,7 @@
   </si>
   <si>
     <t>借样确认单</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,13 +171,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Wingdings 2"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -243,13 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Wingdings 2"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,14 +257,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -305,22 +283,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -328,12 +306,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -771,14 +777,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -792,255 +798,234 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,10 +1041,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1364,7 +1367,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1378,103 +1381,103 @@
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="90" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="93"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="78" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="83"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="50"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="70" t="s">
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="15"/>
@@ -1489,105 +1492,105 @@
       <c r="J7" s="16"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:11" ht="16.5">
+      <c r="A8" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="73"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="53"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="90"/>
+    </row>
+    <row r="10" spans="1:11" ht="15">
+      <c r="A10" s="54"/>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="53"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
+    </row>
+    <row r="11" spans="1:11" ht="15">
+      <c r="A11" s="54"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="53"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="17" t="s">
@@ -1605,10 +1608,10 @@
       <c r="E14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="60"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="19" t="s">
         <v>28</v>
       </c>
@@ -1630,8 +1633,8 @@
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="14"/>
@@ -1645,8 +1648,8 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -1660,8 +1663,8 @@
       <c r="C17" s="26"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="5"/>
       <c r="I17" s="26"/>
       <c r="J17" s="25"/>
@@ -1675,8 +1678,8 @@
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -1690,8 +1693,8 @@
       <c r="C19" s="26"/>
       <c r="D19" s="29"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="7"/>
       <c r="I19" s="26"/>
       <c r="J19" s="9"/>
@@ -1705,8 +1708,8 @@
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -1720,8 +1723,8 @@
       <c r="C21" s="26"/>
       <c r="D21" s="30"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="J21" s="10"/>
@@ -1735,8 +1738,8 @@
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
@@ -1750,8 +1753,8 @@
       <c r="C23" s="26"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="24"/>
       <c r="I23" s="26"/>
       <c r="J23" s="11"/>
@@ -1765,8 +1768,8 @@
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
@@ -1776,46 +1779,46 @@
       <c r="A25" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
     </row>
     <row r="26" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:11" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="39" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -1868,7 +1871,7 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F14:G14"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1882,7 +1885,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1895,7 +1898,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>

--- a/public/templates/借样确认单.xlsx
+++ b/public/templates/借样确认单.xlsx
@@ -124,18 +124,17 @@
   </si>
   <si>
     <t>借样确认单</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,17 +200,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -288,14 +276,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -356,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -455,21 +435,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -772,63 +737,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -837,241 +777,210 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="常规 4" xfId="3"/>
-    <cellStyle name="常规_ABK2011年报价" xfId="5"/>
     <cellStyle name="样式 1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1364,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B16" sqref="B16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1378,467 +1287,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" thickBot="1">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="83" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="32"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="68" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="74" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="33"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="51"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="51"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="68" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="20"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="89"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="54"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="90"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="1:11" ht="15">
-      <c r="A10" s="54"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
     </row>
     <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="54"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="54"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1">
-      <c r="A13" s="55"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="75"/>
+      <c r="H14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="34"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="34"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
+    </row>
+    <row r="17" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="63"/>
       <c r="G17" s="63"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>4</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1">
-        <v>5</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="34"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1">
-        <v>6</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1">
-        <v>7</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="34"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1">
-        <v>8</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="34"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1">
-        <v>9</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="34"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1">
-      <c r="A24" s="13">
-        <v>10</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="1:11" ht="72.75" customHeight="1" thickBot="1">
-      <c r="A25" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-    </row>
-    <row r="26" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
-    </row>
-    <row r="27" spans="1:11" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A27" s="40" t="s">
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+    </row>
+    <row r="18" spans="1:11" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="40" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
+  <mergeCells count="39">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="C13:K13"/>
@@ -1848,30 +1618,25 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1885,7 +1650,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1898,7 +1663,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
